--- a/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
+++ b/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
@@ -18,9 +18,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="106">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="116">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段00220005地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段00220000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段00490000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區月眉段21590000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區月眉段05800000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上¥段02900000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段05290000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段05270000地號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段05260000地號</t>
+  </si>
+  <si>
+    <t>20000分之155</t>
+  </si>
+  <si>
+    <t>20000分之3</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>11分之1</t>
+  </si>
+  <si>
+    <t>44分之1</t>
+  </si>
+  <si>
+    <t>110分之1</t>
+  </si>
+  <si>
+    <t>林郁方</t>
+  </si>
+  <si>
+    <t>黃昱華</t>
+  </si>
+  <si>
+    <t>97年03月26日</t>
+  </si>
+  <si>
+    <t>84年07月13日</t>
+  </si>
+  <si>
+    <t>90年06月21曰</t>
+  </si>
+  <si>
+    <t>90年06月21日</t>
+  </si>
+  <si>
+    <t>9b年06月21曰</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>貝賈</t>
+  </si>
+  <si>
+    <t>繼承</t>
+  </si>
+  <si>
+    <t>14345000(與下列七筆為同一交易）</t>
+  </si>
+  <si>
+    <t>14345000(1第一筆為同一交易）</t>
+  </si>
+  <si>
+    <t>14345000(與第一筆為同一交易）</t>
+  </si>
+  <si>
+    <t>14345Q00(與第一筆為同一交易）</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五牵）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmpb9711</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -38,133 +185,25 @@
     <t>登記（取得）原因</t>
   </si>
   <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段 0022-0005 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段 0022-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段0049-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區月眉段2159 - 0000 •地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區月眉段0580-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上¥段0290-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段0529 - 0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段0527-0000 地號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段0526-0000 地號</t>
-  </si>
-  <si>
-    <t>20000分之 155</t>
-  </si>
-  <si>
-    <t>20000分之 3</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>11分之1</t>
-  </si>
-  <si>
-    <t>44分之1</t>
-  </si>
-  <si>
-    <t>110分之1</t>
-  </si>
-  <si>
-    <t>林郁方</t>
-  </si>
-  <si>
-    <t>黃昱華</t>
-  </si>
-  <si>
-    <t>97年03月 26日</t>
-  </si>
-  <si>
-    <t>84年07月 13日</t>
-  </si>
-  <si>
-    <t>90年06月 21曰</t>
-  </si>
-  <si>
-    <t>90年06月 21日</t>
-  </si>
-  <si>
-    <t>9b年06月 21曰</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>貝賈</t>
-  </si>
-  <si>
-    <t>繼承</t>
-  </si>
-  <si>
-    <t>14,345,000(與 下列七筆為同 一交易）</t>
-  </si>
-  <si>
-    <t>14,345,000(1^ 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>14,345，000(與 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>14,345,000(^1 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>14,345,Q00(與 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>14,345,000(與 第一筆為同一 交易）</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>,(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五牵）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>取得價攀</t>
   </si>
   <si>
-    <t>臺北市中正區永昌段六小段 01214-000M</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段 01193-000 建號</t>
-  </si>
-  <si>
-    <t>;臺北市中正區永昌段六小段 01214-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段. 01193-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段一小段 01360-000 建號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段00000-000 建號</t>
+    <t>臺北市中正區永昌段六小段01214000M</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段01193000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段01214000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段.01193000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段一小段01360000建號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段00000000建號</t>
   </si>
   <si>
     <t>2分之1</t>
@@ -176,16 +215,13 @@
     <t>全部</t>
   </si>
   <si>
-    <t>97年03月 06日</t>
-  </si>
-  <si>
-    <t>97年03月 06曰</t>
-  </si>
-  <si>
-    <t>97年03月 06'日</t>
-  </si>
-  <si>
-    <t>84牟07月 13日</t>
+    <t>97年03月06日</t>
+  </si>
+  <si>
+    <t>97年03月06曰</t>
+  </si>
+  <si>
+    <t>84牟07月13日</t>
   </si>
   <si>
     <t>.買賣</t>
@@ -194,22 +230,19 @@
     <t>貝賣</t>
   </si>
   <si>
-    <t>•貝賈</t>
-  </si>
-  <si>
-    <t>14,345,000(1^ 下列三筆為同 一交易(含陽台 13.23，雨遮 6.98))</t>
-  </si>
-  <si>
-    <t>14，345，000(與 第一筆為同一 交葛（含陽台 13.23，雨遽 6.98))</t>
-  </si>
-  <si>
-    <t>14,3'45,000(與 第一筆為同一 交易（含陽台 13.23，雨遮 6.98))</t>
-  </si>
-  <si>
-    <t>14,345,000(與 第一筆為同一 ‘ 交易（含陽台 13.23，雨遮</t>
-  </si>
-  <si>
-    <t>(超過五年 &gt; 地 址:上平村山仙 路114巷17號）</t>
+    <t>14345000(1下列三筆為同一交易(含陽台13.23雨遮6.98))</t>
+  </si>
+  <si>
+    <t>14345000(與第一筆為同一交葛（含陽台13.23雨遽6.98))</t>
+  </si>
+  <si>
+    <t>14345000(與第一筆為同一交易（含陽台13.23雨遮6.98))</t>
+  </si>
+  <si>
+    <t>14345000(與第一筆為同一‘交易（含陽台13.23雨遮</t>
+  </si>
+  <si>
+    <t>(超過五年&gt;地址:上平村山仙路114巷17號）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構.)</t>
@@ -230,16 +263,16 @@
     <t>台北金南郵局（第91支）</t>
   </si>
   <si>
-    <t>台北東門郵局（台北1支 局）</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分 行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行台北分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行金華分 行</t>
+    <t>台北東門郵局（台北1支局）</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行金華分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -275,7 +308,7 @@
     <t>安泰喬祿還本終身壽險</t>
   </si>
   <si>
-    <t>國泰人壽利率變動型年金甲 型</t>
+    <t>國泰人壽利率變動型年金甲型</t>
   </si>
   <si>
     <t>增額終身壽險</t>
@@ -284,16 +317,16 @@
     <t>增額终身壽險</t>
   </si>
   <si>
-    <t>保險期間：91.03.20〜 97.03.20，保費繳納方式：年 繳保費：118,404’終身保障， 價額：600,000元</t>
-  </si>
-  <si>
-    <t>保險期間：94.03.21〜 104.03.21，保費繳納方式： 定期存款：1,000,000，期滿 領回，價額：1,117,000元</t>
-  </si>
-  <si>
-    <t>保險期間：90.dl.04〜 110.01.04，保費繳納方式：' 年繳保費：21,845，終身保 障，價額：108,000元</t>
-  </si>
-  <si>
-    <t>保險期間：90.01.04〜 110.01:04，保費繳納方式•• 年繳保費：30,428，終身保 障，價額：90,000元</t>
+    <t>保險期間：91.03.20〜97.03.20保費繳納方式：年繳保費：118404終身保障價額：600000元</t>
+  </si>
+  <si>
+    <t>保險期間：94.03.21〜104.03.21保費繳納方式：定期存款：1000000期滿領回價額：1117000元</t>
+  </si>
+  <si>
+    <t>保險期間：90.dl.04〜110.01.04保費繳納方式：年繳保費：21845終身保障價額：108000元</t>
+  </si>
+  <si>
+    <t>保險期間：90.01.04〜110.01:04保費繳納方式年繳保費：30428終身保障價額：90000元</t>
   </si>
   <si>
     <t>債務人</t>
@@ -317,25 +350,22 @@
     <t>親友借款</t>
   </si>
   <si>
-    <t>國泰世華台北分行 臺北市中正區博愛路</t>
-  </si>
-  <si>
-    <t>賴志威 臺北市信義區松德路</t>
-  </si>
-  <si>
-    <t>張宏潭 臺北市內湖區大湖山莊街</t>
-  </si>
-  <si>
-    <t>97年05月 05日</t>
-  </si>
-  <si>
-    <t>97年05月 15曰</t>
-  </si>
-  <si>
-    <t>房屋貸款,</t>
-  </si>
-  <si>
-    <t>購買房屋自 備款</t>
+    <t>國泰世華台北分行臺北市中正區博愛路</t>
+  </si>
+  <si>
+    <t>賴志威臺北市信義區松德路</t>
+  </si>
+  <si>
+    <t>張宏潭臺北市內湖區大湖山莊街</t>
+  </si>
+  <si>
+    <t>97年05月05日</t>
+  </si>
+  <si>
+    <t>97年05月15曰</t>
+  </si>
+  <si>
+    <t>購買房屋自備款</t>
   </si>
 </sst>
 </file>
@@ -694,13 +724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,395 +752,731 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1785</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>716</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2">
         <v>1785</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>716</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>807.12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>716</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>807.12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>716</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>1785</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>716</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>1785</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2">
+        <v>716</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>807.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2">
+        <v>716</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>807.12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="2">
+        <v>716</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="2">
+        <v>716</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
         <v>1635</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="2">
+        <v>716</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>328</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="2">
+        <v>716</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
         <v>685.59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2">
+        <v>716</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>942.75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2">
+        <v>716</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
         <v>813.08</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2">
+        <v>716</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="2">
         <v>27</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
         <v>773.31</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="2">
+        <v>716</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O16" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1128,25 +1494,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1154,25 +1520,25 @@
         <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>152.52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1180,25 +1546,25 @@
         <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2">
         <v>4.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1206,25 +1572,25 @@
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2">
         <v>152.52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1232,25 +1598,25 @@
         <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2">
         <v>4.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1258,25 +1624,25 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2">
         <v>116.91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1284,25 +1650,25 @@
         <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2">
         <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1320,19 +1686,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1340,16 +1706,16 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>990336</v>
@@ -1360,16 +1726,16 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2">
         <v>771586</v>
@@ -1380,16 +1746,16 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2">
         <v>7188835</v>
@@ -1400,16 +1766,16 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F5" s="2">
         <v>896141</v>
@@ -1420,16 +1786,16 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2">
         <v>863253</v>
@@ -1440,16 +1806,16 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
         <v>1264</v>
@@ -1470,16 +1836,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1487,16 +1853,16 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1504,16 +1870,16 @@
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1521,16 +1887,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1538,16 +1904,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1565,22 +1931,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1588,22 +1954,22 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>10366731</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1611,22 +1977,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2">
         <v>1800000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1634,22 +2000,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2">
         <v>2000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
+++ b/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -62,6 +62,12 @@
     <t>index</t>
   </si>
   <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
     <t>臺北市中正區永昌段六小段00220005地號</t>
   </si>
   <si>
@@ -89,12 +95,12 @@
     <t>高雄市杉林區上平段05260000地號</t>
   </si>
   <si>
+    <t>20000分之3</t>
+  </si>
+  <si>
     <t>20000分之155</t>
   </si>
   <si>
-    <t>20000分之3</t>
-  </si>
-  <si>
     <t>4分之1</t>
   </si>
   <si>
@@ -137,9 +143,6 @@
     <t>繼承</t>
   </si>
   <si>
-    <t>14345000(與下列七筆為同一交易）</t>
-  </si>
-  <si>
     <t>14345000(1第一筆為同一交易）</t>
   </si>
   <si>
@@ -167,30 +170,18 @@
     <t>tmpb9711</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價攀</t>
-  </si>
-  <si>
     <t>臺北市中正區永昌段六小段01214000M</t>
   </si>
   <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>97年03月06日</t>
+  </si>
+  <si>
+    <t>14345000(1下列三筆為同一交易(含陽台13.23雨遮6.98))</t>
+  </si>
+  <si>
     <t>臺北市中正區永昌段六小段01193000建號</t>
   </si>
   <si>
@@ -206,18 +197,12 @@
     <t>高雄市杉林區上平段00000000建號</t>
   </si>
   <si>
-    <t>2分之1</t>
-  </si>
-  <si>
     <t>174分之3</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>97年03月06日</t>
-  </si>
-  <si>
     <t>97年03月06曰</t>
   </si>
   <si>
@@ -230,9 +215,6 @@
     <t>貝賣</t>
   </si>
   <si>
-    <t>14345000(1下列三筆為同一交易(含陽台13.23雨遮6.98))</t>
-  </si>
-  <si>
     <t>14345000(與第一筆為同一交葛（含陽台13.23雨遽6.98))</t>
   </si>
   <si>
@@ -245,24 +227,15 @@
     <t>(超過五年&gt;地址:上平村山仙路114巷17號）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構.)</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台北金南郵局（第91支）</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台北東門郵局（台北1支局）</t>
   </si>
   <si>
@@ -275,39 +248,24 @@
     <t>台北富邦商業銀行金華分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>定期儲蓄存款</t>
   </si>
   <si>
     <t>活期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>安泰喬祿還本終身壽險</t>
+  </si>
+  <si>
+    <t>保險期間：91.03.20〜97.03.20保費繳納方式：年繳保費：118404終身保障價額：600000元</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
-    <t>安泰喬祿還本終身壽險</t>
-  </si>
-  <si>
     <t>國泰人壽利率變動型年金甲型</t>
   </si>
   <si>
@@ -317,9 +275,6 @@
     <t>增額终身壽險</t>
   </si>
   <si>
-    <t>保險期間：91.03.20〜97.03.20保費繳納方式：年繳保費：118404終身保障價額：600000元</t>
-  </si>
-  <si>
     <t>保險期間：94.03.21〜104.03.21保費繳納方式：定期存款：1000000期滿領回價額：1117000元</t>
   </si>
   <si>
@@ -329,28 +284,16 @@
     <t>保險期間：90.01.04〜110.01:04保費繳納方式年繳保費：30428終身保障價額：90000元</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>國泰世華台北分行臺北市中正區博愛路</t>
+  </si>
+  <si>
     <t>親友借款</t>
   </si>
   <si>
-    <t>國泰世華台北分行臺北市中正區博愛路</t>
+    <t>購買房屋自備款</t>
   </si>
   <si>
     <t>賴志威臺北市信義區松德路</t>
@@ -363,9 +306,6 @@
   </si>
   <si>
     <t>97年05月15曰</t>
-  </si>
-  <si>
-    <t>購買房屋自備款</t>
   </si>
 </sst>
 </file>
@@ -724,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,710 +713,753 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
         <v>1785</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>716</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.00015</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.26775</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2">
+        <v>807.12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1785</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>716</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.00775</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>6.25518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>807.12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>716</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.00015</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.121068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="2">
-        <v>807.12</v>
+        <v>1785</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
         <v>716</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.00775</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>13.83375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>1785</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
         <v>716</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2">
+        <v>18</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.00015</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.26775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>19</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C7" s="2">
-        <v>1785</v>
+        <v>807.12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2">
         <v>716</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.00775</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>6.25518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>807.12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2">
         <v>716</v>
       </c>
       <c r="N8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="2">
+        <v>20</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.00015</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0.121068</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <v>148</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O8" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2">
-        <v>807.12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2">
         <v>716</v>
       </c>
       <c r="N9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="2">
+        <v>21</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1635</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O9" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2">
-        <v>148</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L10" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M10" s="2">
         <v>716</v>
       </c>
       <c r="N10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>148.636363636364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2">
+        <v>328</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O10" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1635</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2">
         <v>716</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0227272727272727</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>7.45454545454546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2">
+        <v>685.59</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2">
-        <v>328</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2">
         <v>716</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O12" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.00909090909090909</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>6.23263636363636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>685.59</v>
+        <v>942.75</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M13" s="2">
         <v>716</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="2">
+        <v>26</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>85.7045454545455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
+        <v>813.08</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O13" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2">
-        <v>942.75</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="L14" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M14" s="2">
         <v>716</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O14" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0227272727272727</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>18.4790909090909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
-        <v>813.08</v>
+        <v>773.31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M15" s="2">
         <v>716</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2">
-        <v>773.31</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="2">
-        <v>716</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="2">
-        <v>28</v>
+      <c r="P15" s="2">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>70.3009090909091</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1494,181 +1477,155 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="C1" s="1">
+        <v>152.52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
-        <v>152.52</v>
+        <v>4.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
-        <v>4.5</v>
+        <v>152.52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2">
-        <v>152.52</v>
+        <v>4.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2">
+        <v>116.91</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2">
-        <v>116.91</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>43</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="2">
-        <v>138</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1678,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1686,138 +1643,118 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>31</v>
+      </c>
+      <c r="F1" s="1">
+        <v>990336</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>990336</v>
+        <v>771586</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
-        <v>771586</v>
+        <v>7188835</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
-        <v>7188835</v>
+        <v>896141</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2">
-        <v>896141</v>
+        <v>863253</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2">
-        <v>863253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>77</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
         <v>1264</v>
       </c>
     </row>
@@ -1828,7 +1765,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1836,84 +1773,67 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>112</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1931,91 +1851,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10366731</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10366731</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1800000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1800000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>113</v>
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2000000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>124</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
+++ b/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="97">
   <si>
     <t>name</t>
   </si>
@@ -95,12 +95,12 @@
     <t>高雄市杉林區上平段05260000地號</t>
   </si>
   <si>
+    <t>20000分之155</t>
+  </si>
+  <si>
     <t>20000分之3</t>
   </si>
   <si>
-    <t>20000分之155</t>
-  </si>
-  <si>
     <t>4分之1</t>
   </si>
   <si>
@@ -143,6 +143,9 @@
     <t>繼承</t>
   </si>
   <si>
+    <t>14345000(與下列七筆為同一交易）</t>
+  </si>
+  <si>
     <t>14345000(1第一筆為同一交易）</t>
   </si>
   <si>
@@ -173,46 +176,46 @@
     <t>臺北市中正區永昌段六小段01214000M</t>
   </si>
   <si>
+    <t>臺北市中正區永昌段六小段01193000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段01214000建號</t>
+  </si>
+  <si>
+    <t>臺北市中正區永昌段六小段.01193000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段一小段01360000建號</t>
+  </si>
+  <si>
+    <t>高雄市杉林區上平段00000000建號</t>
+  </si>
+  <si>
     <t>2分之1</t>
   </si>
   <si>
+    <t>174分之3</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>97年03月06日</t>
   </si>
   <si>
+    <t>97年03月06曰</t>
+  </si>
+  <si>
+    <t>84牟07月13日</t>
+  </si>
+  <si>
+    <t>.買賣</t>
+  </si>
+  <si>
+    <t>貝賣</t>
+  </si>
+  <si>
     <t>14345000(1下列三筆為同一交易(含陽台13.23雨遮6.98))</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段01193000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段01214000建號</t>
-  </si>
-  <si>
-    <t>臺北市中正區永昌段六小段.01193000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段一小段01360000建號</t>
-  </si>
-  <si>
-    <t>高雄市杉林區上平段00000000建號</t>
-  </si>
-  <si>
-    <t>174分之3</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>97年03月06曰</t>
-  </si>
-  <si>
-    <t>84牟07月13日</t>
-  </si>
-  <si>
-    <t>.買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
   </si>
   <si>
     <t>14345000(與第一筆為同一交葛（含陽台13.23雨遽6.98))</t>
@@ -664,7 +667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -722,7 +725,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -746,13 +749,13 @@
         <v>41</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>31</v>
@@ -761,27 +764,27 @@
         <v>716</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q2" s="2">
-        <v>0.26775</v>
+        <v>13.83375</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>807.12</v>
+        <v>1785</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>26</v>
@@ -796,16 +799,16 @@
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -814,21 +817,21 @@
         <v>716</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
-        <v>0.00775</v>
+        <v>0.00015</v>
       </c>
       <c r="Q3" s="2">
-        <v>6.25518</v>
+        <v>0.26775</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -852,13 +855,13 @@
         <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -867,33 +870,33 @@
         <v>716</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.121068</v>
+        <v>6.25518</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="2">
-        <v>1785</v>
+        <v>807.12</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>33</v>
@@ -902,16 +905,16 @@
         <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
@@ -920,21 +923,21 @@
         <v>716</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="2">
-        <v>0.00775</v>
+        <v>0.00015</v>
       </c>
       <c r="Q5" s="2">
-        <v>13.83375</v>
+        <v>0.121068</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
@@ -952,19 +955,19 @@
         <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
@@ -973,27 +976,27 @@
         <v>716</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O6" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P6" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q6" s="2">
-        <v>0.26775</v>
+        <v>13.83375</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>807.12</v>
+        <v>1785</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -1005,19 +1008,19 @@
         <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
@@ -1026,21 +1029,21 @@
         <v>716</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O7" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P7" s="2">
-        <v>0.00775</v>
+        <v>0.00015</v>
       </c>
       <c r="Q7" s="2">
-        <v>6.25518</v>
+        <v>0.26775</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -1061,16 +1064,16 @@
         <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
@@ -1079,51 +1082,51 @@
         <v>716</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O8" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P8" s="2">
-        <v>0.00015</v>
+        <v>0.00775</v>
       </c>
       <c r="Q8" s="2">
-        <v>0.121068</v>
+        <v>6.25518</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
-        <v>148</v>
+        <v>807.12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>31</v>
@@ -1132,51 +1135,51 @@
         <v>716</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O9" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P9" s="2">
-        <v>0.25</v>
+        <v>0.00015</v>
       </c>
       <c r="Q9" s="2">
-        <v>37</v>
+        <v>0.121068</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
-        <v>1635</v>
+        <v>148</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>31</v>
@@ -1185,30 +1188,30 @@
         <v>716</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0909090909090909</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" s="2">
-        <v>148.636363636364</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>328</v>
+        <v>1635</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
@@ -1220,16 +1223,16 @@
         <v>40</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>31</v>
@@ -1238,51 +1241,51 @@
         <v>716</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="2">
-        <v>0.0227272727272727</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Q11" s="2">
-        <v>7.45454545454546</v>
+        <v>148.636363636364</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2">
-        <v>685.59</v>
+        <v>328</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>31</v>
@@ -1291,51 +1294,51 @@
         <v>716</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P12" s="2">
-        <v>0.00909090909090909</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="Q12" s="2">
-        <v>6.23263636363636</v>
+        <v>7.45454545454546</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2">
-        <v>942.75</v>
+        <v>685.59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>31</v>
@@ -1344,36 +1347,36 @@
         <v>716</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="2">
-        <v>0.0909090909090909</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="Q13" s="2">
-        <v>85.7045454545455</v>
+        <v>6.23263636363636</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2">
-        <v>813.08</v>
+        <v>942.75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>40</v>
@@ -1382,13 +1385,13 @@
         <v>45</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>31</v>
@@ -1397,30 +1400,30 @@
         <v>716</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P14" s="2">
-        <v>0.0227272727272727</v>
+        <v>0.0909090909090909</v>
       </c>
       <c r="Q14" s="2">
-        <v>18.4790909090909</v>
+        <v>85.7045454545455</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2">
-        <v>773.31</v>
+        <v>813.08</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>31</v>
@@ -1432,16 +1435,16 @@
         <v>40</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>31</v>
@@ -1450,15 +1453,68 @@
         <v>716</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="2">
+        <v>27</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.0227272727272727</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>18.4790909090909</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="2">
+        <v>773.31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O15" s="2">
+      <c r="L16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="2">
+        <v>716</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="2">
         <v>28</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P16" s="2">
         <v>0.0909090909090909</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q16" s="2">
         <v>70.3009090909091</v>
       </c>
     </row>
@@ -1469,163 +1525,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2">
         <v>152.52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>716</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="2">
+        <v>36</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>76.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
-        <v>152.52</v>
+        <v>4.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>716</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2">
+        <v>37</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0172413793103448</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.0775862068965517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
-        <v>4.5</v>
+        <v>152.52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2">
+        <v>716</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="2">
+        <v>38</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>76.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>716</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="2">
+        <v>39</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0172413793103448</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.0775862068965517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>42</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2">
         <v>116.91</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>716</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="2">
+        <v>42</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>116.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
         <v>43</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="2">
         <v>138</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>68</v>
+      <c r="H7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>716</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="2">
+        <v>43</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.0909090909090909</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>12.5454545454545</v>
       </c>
     </row>
   </sheetData>
@@ -1635,7 +1906,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1643,13 +1914,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1660,101 +1931,121 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>771586</v>
+        <v>990336</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="2">
-        <v>7188835</v>
+        <v>771586</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="2">
-        <v>896141</v>
+        <v>7188835</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>863253</v>
+        <v>896141</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="2">
+        <v>863253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="2">
         <v>1264</v>
       </c>
     </row>
@@ -1765,7 +2056,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1773,41 +2064,41 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>83</v>
@@ -1821,19 +2112,36 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>112</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2151,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1851,13 +2159,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1">
         <v>10366731</v>
@@ -1866,41 +2174,41 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F2" s="2">
-        <v>1800000</v>
+        <v>10366731</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
@@ -1909,10 +2217,33 @@
         <v>93</v>
       </c>
       <c r="F3" s="2">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>124</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
+++ b/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="98">
   <si>
     <t>name</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>(超過五年&gt;地址:上平村山仙路114巷17號）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>台北金南郵局（第91支）</t>
@@ -1607,7 +1610,7 @@
         <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>48</v>
@@ -1660,7 +1663,7 @@
         <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>48</v>
@@ -1713,7 +1716,7 @@
         <v>67</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>48</v>
@@ -1766,7 +1769,7 @@
         <v>68</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>48</v>
@@ -1819,7 +1822,7 @@
         <v>45</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>48</v>
@@ -1872,7 +1875,7 @@
         <v>69</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>48</v>
@@ -1914,13 +1917,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1934,13 +1937,13 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1954,13 +1957,13 @@
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1974,13 +1977,13 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -1994,13 +1997,13 @@
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2014,13 +2017,13 @@
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -2034,13 +2037,13 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
@@ -2064,16 +2067,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2081,16 +2084,16 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2098,16 +2101,16 @@
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2115,16 +2118,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2132,16 +2135,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2159,13 +2162,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1">
         <v>10366731</v>
@@ -2174,7 +2177,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2182,16 +2185,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F2" s="2">
         <v>10366731</v>
@@ -2205,22 +2208,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2">
         <v>1800000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2228,22 +2231,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2">
         <v>2000000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
+++ b/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="102">
   <si>
     <t>name</t>
   </si>
@@ -233,31 +233,43 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台北金南郵局（第91支）</t>
   </si>
   <si>
+    <t>台北東門郵局（台北1支局）</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行金華分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北東門郵局（台北1支局）</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行台北分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行金華分行</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>富邦人壽</t>
@@ -1909,13 +1921,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1926,24 +1938,45 @@
         <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1">
-        <v>990336</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1951,19 +1984,40 @@
       <c r="F2" s="2">
         <v>990336</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>716</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
@@ -1971,19 +2025,40 @@
       <c r="F3" s="2">
         <v>771586</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <v>716</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>31</v>
@@ -1991,19 +2066,40 @@
       <c r="F4" s="2">
         <v>7188835</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>716</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
@@ -2011,19 +2107,40 @@
       <c r="F5" s="2">
         <v>896141</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>716</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>32</v>
@@ -2031,25 +2148,67 @@
       <c r="F6" s="2">
         <v>863253</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2">
+        <v>716</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2">
         <v>1264</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2">
+        <v>716</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="2">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2067,16 +2226,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2084,16 +2243,16 @@
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2101,16 +2260,16 @@
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2118,16 +2277,16 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2135,16 +2294,16 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2162,13 +2321,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1">
         <v>10366731</v>
@@ -2177,7 +2336,7 @@
         <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2185,16 +2344,16 @@
         <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2">
         <v>10366731</v>
@@ -2208,22 +2367,22 @@
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2">
         <v>1800000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2231,22 +2390,22 @@
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F4" s="2">
         <v>2000000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
+++ b/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -272,18 +272,18 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
     <t>安泰喬祿還本終身壽險</t>
   </si>
   <si>
-    <t>保險期間：91.03.20〜97.03.20保費繳納方式：年繳保費：118404終身保障價額：600000元</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
     <t>國泰人壽利率變動型年金甲型</t>
   </si>
   <si>
@@ -293,37 +293,40 @@
     <t>增額终身壽險</t>
   </si>
   <si>
-    <t>保險期間：94.03.21〜104.03.21保費繳納方式：定期存款：1000000期滿領回價額：1117000元</t>
-  </si>
-  <si>
-    <t>保險期間：90.dl.04〜110.01.04保費繳納方式：年繳保費：21845終身保障價額：108000元</t>
-  </si>
-  <si>
-    <t>保險期間：90.01.04〜110.01:04保費繳納方式年繳保費：30428終身保障價額：90000元</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
   </si>
   <si>
+    <t>親友借款</t>
+  </si>
+  <si>
     <t>國泰世華台北分行臺北市中正區博愛路</t>
   </si>
   <si>
-    <t>親友借款</t>
+    <t>賴志威臺北市信義區松德路</t>
+  </si>
+  <si>
+    <t>張宏潭臺北市內湖區大湖山莊街</t>
+  </si>
+  <si>
+    <t>97年05月05日</t>
+  </si>
+  <si>
+    <t>97年05月15曰</t>
   </si>
   <si>
     <t>購買房屋自備款</t>
   </si>
   <si>
-    <t>賴志威臺北市信義區松德路</t>
-  </si>
-  <si>
-    <t>張宏潭臺北市內湖區大湖山莊街</t>
-  </si>
-  <si>
-    <t>97年05月05日</t>
-  </si>
-  <si>
-    <t>97年05月15曰</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2218,49 +2221,85 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2">
+        <v>716</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>109</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>88</v>
@@ -2271,13 +2310,31 @@
       <c r="E3" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2">
+        <v>716</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>89</v>
@@ -2286,15 +2343,33 @@
         <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2">
+        <v>716</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>90</v>
@@ -2303,7 +2378,25 @@
         <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2">
+        <v>716</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2313,33 +2406,54 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="1">
-        <v>10366731</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>122</v>
       </c>
@@ -2347,65 +2461,128 @@
         <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10366731</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10366731</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>716</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>123</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3" s="2">
         <v>1800000</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2">
+        <v>716</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="2">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2">
         <v>2000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>101</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2">
+        <v>716</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="2">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
+++ b/legislator/property/output/normal/林郁方_2011-11-22_財產申報表_tmpb9711.xlsx
@@ -9,16 +9,17 @@
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
     <sheet name="建物" sheetId="2" r:id="rId2"/>
-    <sheet name="存款" sheetId="3" r:id="rId3"/>
-    <sheet name="保險" sheetId="4" r:id="rId4"/>
-    <sheet name="債務" sheetId="5" r:id="rId5"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="103">
   <si>
     <t>name</t>
   </si>
@@ -83,7 +84,7 @@
     <t>高雄市杉林區月眉段05800000地號</t>
   </si>
   <si>
-    <t>高雄市杉林區上¥段02900000地號</t>
+    <t>高雄市杉林區上平段02900000地號</t>
   </si>
   <si>
     <t>高雄市杉林區上平段05290000地號</t>
@@ -137,9 +138,6 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>貝賈</t>
-  </si>
-  <si>
     <t>繼承</t>
   </si>
   <si>
@@ -173,15 +171,12 @@
     <t>tmpb9711</t>
   </si>
   <si>
-    <t>臺北市中正區永昌段六小段01214000M</t>
+    <t>臺北市中正區永昌段六小段01214000建號</t>
   </si>
   <si>
     <t>臺北市中正區永昌段六小段01193000建號</t>
   </si>
   <si>
-    <t>臺北市中正區永昌段六小段01214000建號</t>
-  </si>
-  <si>
     <t>臺北市中正區永昌段六小段.01193000建號</t>
   </si>
   <si>
@@ -209,12 +204,6 @@
     <t>84牟07月13日</t>
   </si>
   <si>
-    <t>.買賣</t>
-  </si>
-  <si>
-    <t>貝賣</t>
-  </si>
-  <si>
     <t>14345000(1下列三筆為同一交易(含陽台13.23雨遮6.98))</t>
   </si>
   <si>
@@ -231,6 +220,18 @@
   </si>
   <si>
     <t>building</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>國瑞TOYOTACAMRY</t>
+  </si>
+  <si>
+    <t>100年04月01曰</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>bank</t>
@@ -764,16 +765,16 @@
         <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>31</v>
@@ -782,7 +783,7 @@
         <v>716</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2">
         <v>13</v>
@@ -817,16 +818,16 @@
         <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -835,7 +836,7 @@
         <v>716</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2">
         <v>14</v>
@@ -870,16 +871,16 @@
         <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -888,7 +889,7 @@
         <v>716</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2">
         <v>15</v>
@@ -923,16 +924,16 @@
         <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
@@ -941,7 +942,7 @@
         <v>716</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2">
         <v>16</v>
@@ -976,16 +977,16 @@
         <v>38</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
@@ -994,7 +995,7 @@
         <v>716</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2">
         <v>17</v>
@@ -1026,19 +1027,19 @@
         <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
@@ -1047,7 +1048,7 @@
         <v>716</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2">
         <v>18</v>
@@ -1082,16 +1083,16 @@
         <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>31</v>
@@ -1100,7 +1101,7 @@
         <v>716</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O8" s="2">
         <v>19</v>
@@ -1135,16 +1136,16 @@
         <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>31</v>
@@ -1153,7 +1154,7 @@
         <v>716</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O9" s="2">
         <v>20</v>
@@ -1188,16 +1189,16 @@
         <v>38</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>31</v>
@@ -1206,7 +1207,7 @@
         <v>716</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O10" s="2">
         <v>21</v>
@@ -1238,19 +1239,19 @@
         <v>35</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>31</v>
@@ -1259,7 +1260,7 @@
         <v>716</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O11" s="2">
         <v>23</v>
@@ -1291,19 +1292,19 @@
         <v>35</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>31</v>
@@ -1312,7 +1313,7 @@
         <v>716</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O12" s="2">
         <v>24</v>
@@ -1344,19 +1345,19 @@
         <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>31</v>
@@ -1365,7 +1366,7 @@
         <v>716</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O13" s="2">
         <v>25</v>
@@ -1397,19 +1398,19 @@
         <v>37</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>31</v>
@@ -1418,7 +1419,7 @@
         <v>716</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O14" s="2">
         <v>26</v>
@@ -1450,19 +1451,19 @@
         <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>31</v>
@@ -1471,7 +1472,7 @@
         <v>716</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O15" s="2">
         <v>27</v>
@@ -1503,19 +1504,19 @@
         <v>36</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>31</v>
@@ -1524,7 +1525,7 @@
         <v>716</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="2">
         <v>28</v>
@@ -1601,37 +1602,37 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2">
         <v>152.52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>31</v>
@@ -1640,10 +1641,10 @@
         <v>716</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P2" s="2">
         <v>0.5</v>
@@ -1654,37 +1655,37 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2">
         <v>4.5</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>31</v>
@@ -1693,10 +1694,10 @@
         <v>716</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O3" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2">
         <v>0.0172413793103448</v>
@@ -1707,37 +1708,37 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2">
         <v>152.52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>31</v>
@@ -1746,10 +1747,10 @@
         <v>716</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O4" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P4" s="2">
         <v>0.5</v>
@@ -1760,37 +1761,37 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2">
         <v>4.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>31</v>
@@ -1799,10 +1800,10 @@
         <v>716</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P5" s="2">
         <v>0.0172413793103448</v>
@@ -1813,49 +1814,49 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2">
         <v>116.91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="2">
+        <v>716</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="2">
         <v>39</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="2">
-        <v>716</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="2">
-        <v>42</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
@@ -1866,10 +1867,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>138</v>
@@ -1884,31 +1885,31 @@
         <v>36</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="2">
+        <v>716</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="2">
         <v>40</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="2">
-        <v>716</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O7" s="2">
-        <v>43</v>
       </c>
       <c r="P7" s="2">
         <v>0.0909090909090909</v>
@@ -1923,6 +1924,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1998</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2">
+        <v>620000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>716</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
@@ -1970,7 +2069,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>74</v>
@@ -1991,10 +2090,10 @@
         <v>83</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>31</v>
@@ -2003,15 +2102,15 @@
         <v>716</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" s="2">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>75</v>
@@ -2032,10 +2131,10 @@
         <v>83</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
@@ -2044,15 +2143,15 @@
         <v>716</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>76</v>
@@ -2073,10 +2172,10 @@
         <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>31</v>
@@ -2085,15 +2184,15 @@
         <v>716</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>77</v>
@@ -2114,10 +2213,10 @@
         <v>83</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>31</v>
@@ -2126,15 +2225,15 @@
         <v>716</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>75</v>
@@ -2155,10 +2254,10 @@
         <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>31</v>
@@ -2167,15 +2266,15 @@
         <v>716</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M6" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>78</v>
@@ -2196,10 +2295,10 @@
         <v>83</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>31</v>
@@ -2208,10 +2307,10 @@
         <v>716</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M7" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2219,7 +2318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -2261,7 +2360,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>85</v>
@@ -2276,10 +2375,10 @@
         <v>91</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>31</v>
@@ -2288,15 +2387,15 @@
         <v>716</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>86</v>
@@ -2311,10 +2410,10 @@
         <v>91</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>31</v>
@@ -2323,15 +2422,15 @@
         <v>716</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>85</v>
@@ -2346,10 +2445,10 @@
         <v>91</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>31</v>
@@ -2358,15 +2457,15 @@
         <v>716</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>85</v>
@@ -2381,10 +2480,10 @@
         <v>91</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>31</v>
@@ -2393,10 +2492,10 @@
         <v>716</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +2503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -2455,7 +2554,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>94</v>
@@ -2479,10 +2578,10 @@
         <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>31</v>
@@ -2491,15 +2590,15 @@
         <v>716</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>95</v>
@@ -2523,10 +2622,10 @@
         <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>31</v>
@@ -2535,15 +2634,15 @@
         <v>716</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N3" s="2">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>95</v>
@@ -2567,10 +2666,10 @@
         <v>102</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>31</v>
@@ -2579,10 +2678,10 @@
         <v>716</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
